--- a/DateBase/orders/Nha Thu_2025-10-1.xlsx
+++ b/DateBase/orders/Nha Thu_2025-10-1.xlsx
@@ -978,6 +978,9 @@
       <c r="G2" t="str">
         <v>010151110101281061513126315217551515520553010205333102510415515555105101015155151530101010</v>
       </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
